--- a/public/data/soil/soil_table_liberia.xlsx
+++ b/public/data/soil/soil_table_liberia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -854,19 +854,19 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>33306.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>115.3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61.069</v>
+        <v>58.266</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2877.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.764</v>
+        <v>11.389</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>13014.1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>109.9</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.685</v>
+        <v>30.6</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>29383.2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>89.3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>51.628</v>
+        <v>45.2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>20096.2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.496</v>
+        <v>24.661</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>25912.4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.629</v>
+        <v>35.565</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>9794.7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.139</v>
+        <v>33.585</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>12592.3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>22.846</v>
+        <v>24.815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>28074.6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>49.446</v>
+        <v>43.757</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>6760.1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.164</v>
+        <v>19.653</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>8818.3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.105</v>
+        <v>17.101</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>7694.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.134</v>
+        <v>19.587</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>8461.1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.66</v>
+        <v>22.375</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>7139.4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>10.046</v>
+        <v>22.815</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>7453.3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.731</v>
+        <v>11.083</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>5116.9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.834</v>
+        <v>15.875</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>21659.4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>18.248</v>
+        <v>22.478</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>23087.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.6</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>39.39</v>
+        <v>59.508</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>7097.7</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>14.379</v>
+        <v>39.795</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1519,19 +1519,19 @@
         <v>53</v>
       </c>
       <c r="D21" t="n">
-        <v>4219.3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>9.032</v>
+        <v>19.239</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>1859.9</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.647</v>
+        <v>17.019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>1018.1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.578</v>
+        <v>6.816</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>19647.2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>35.734</v>
+        <v>40.704</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>14196.3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>21.457</v>
+        <v>27.839</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>11832.2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.923</v>
+        <v>28.565</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>8358.3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>13.839</v>
+        <v>15.729</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>15662.9</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>18.66</v>
+        <v>35.49</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>63</v>
       </c>
       <c r="D29" t="n">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>19.377</v>
+        <v>45.54</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>64</v>
       </c>
       <c r="D30" t="n">
-        <v>18835.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>187.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>28.767</v>
+        <v>33.624</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>1220.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.861</v>
+        <v>4.974</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>4608.8</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.246</v>
+        <v>11.437</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1939,25 +1939,25 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>1151.6</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.129</v>
+        <v>6.79</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1974,25 +1974,25 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.8</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.002</v>
+        <v>18.191</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>15552.2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.037</v>
+        <v>5.097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>24330.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>38.459</v>
+        <v>52.233</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>67</v>
       </c>
       <c r="D37" t="n">
-        <v>3399.4</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.705</v>
+        <v>14.277</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>73</v>
       </c>
       <c r="D38" t="n">
-        <v>12961.3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18.183</v>
+        <v>27.165</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>74</v>
       </c>
       <c r="D39" t="n">
-        <v>27529.4</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>45.119</v>
+        <v>48.49</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>21052.3</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.578</v>
+        <v>32.985</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2219,19 +2219,19 @@
         <v>77</v>
       </c>
       <c r="D41" t="n">
-        <v>15865.7</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>195.7</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.637</v>
+        <v>9.528</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>78</v>
       </c>
       <c r="D42" t="n">
-        <v>10144.5</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>12.383</v>
+        <v>14.349</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>79</v>
       </c>
       <c r="D43" t="n">
-        <v>23218.9</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>176.1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>31.486</v>
+        <v>31.868</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>10123</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1153.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.889</v>
+        <v>17.691</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>2235.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9.193</v>
+        <v>26.764</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         <v>83</v>
       </c>
       <c r="D46" t="n">
-        <v>17312.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>24.381</v>
+        <v>38.477</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>6257.1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2464,13 +2464,13 @@
         <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>1621.9</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2588.5</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2499,19 +2499,19 @@
         <v>87</v>
       </c>
       <c r="D49" t="n">
-        <v>10194.9</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1474.3</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.536</v>
+        <v>5.77</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="D50" t="n">
-        <v>21552.3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>41.084</v>
+        <v>45.712</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>90</v>
       </c>
       <c r="D51" t="n">
-        <v>40639.1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>64.202</v>
+        <v>61.744</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2604,19 +2604,19 @@
         <v>91</v>
       </c>
       <c r="D52" t="n">
-        <v>51703.1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>127.9</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>66.098</v>
+        <v>60.959</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>92</v>
       </c>
       <c r="D53" t="n">
-        <v>28816.1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>306.6</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>47.119</v>
+        <v>66.567</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="D54" t="n">
-        <v>45439.3</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>61.849</v>
+        <v>73.828</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>16393.8</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>23.549</v>
+        <v>29.775</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>95</v>
       </c>
       <c r="D56" t="n">
-        <v>37900.5</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>53.212</v>
+        <v>60.963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>97</v>
       </c>
       <c r="D57" t="n">
-        <v>4082.2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>7.456</v>
+        <v>33.738</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="n">
-        <v>10182.5</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9.567</v>
+        <v>30.971</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>6641.4</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>8.953</v>
+        <v>25.413</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>101</v>
       </c>
       <c r="D60" t="n">
-        <v>4043.1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>8.475</v>
+        <v>29.465</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>1976.9</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.027</v>
+        <v>11.26</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>104</v>
       </c>
       <c r="D62" t="n">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.132</v>
+        <v>6.217</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.056</v>
+        <v>3.307</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>1132.1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.71</v>
+        <v>5.069</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>3734.3</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.543</v>
+        <v>18.199</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>108</v>
       </c>
       <c r="D66" t="n">
-        <v>66.9</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.153</v>
+        <v>0.482</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>109</v>
       </c>
       <c r="D67" t="n">
-        <v>2665.2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.648</v>
+        <v>7.748</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_liberia.xlsx
+++ b/public/data/soil/soil_table_liberia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -854,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6384.4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1452.4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2939.9</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7287</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6453</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7443.2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3103.1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5246.6</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4859.3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1487.4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2599.2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2225.5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2141.3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2309.1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4601.5</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9431.3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5194.9</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>53</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1424</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1826.5</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>290.3</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2904.5</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4730.1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2826</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3879.3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>63</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8243.7</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>64</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3116.2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>766.3</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1987.8</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1670.9</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1353.6</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8328.8</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6419.1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>67</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2308.9</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>73</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3397.9</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>74</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4739.8</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4170.2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>77</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6286.7</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>78</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1498.9</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>79</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3201.1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3855.1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2229.8</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>83</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>5700.9</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1555.9</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>87</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>2006.7</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4166</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>90</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>6566.4</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>91</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>10968.1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>92</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>12071.2</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>7134.3</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4750.5</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>95</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>7228</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>97</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>3857.6</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>11122.7</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>4617.2</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>101</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>3203.2</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1393.9</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>104</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>150.8</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>882.1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1572.8</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>108</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>240.8</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>109</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1089.5</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
